--- a/Assets/TODO/ELEVATOR_TODO.xlsx
+++ b/Assets/TODO/ELEVATOR_TODO.xlsx
@@ -1,43 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="Lunachar"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1712141483" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1712141483" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1712141483" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1712141483"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-        <u/>
+        <charset val="204"/>
+        <family val="2"/>
+        <sz val="13"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="single">
+              <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
       </rPr>
       <t xml:space="preserve">ELEVATOR GAME. </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="204"/>
+        <family val="2"/>
+        <sz val="13"/>
         <b/>
+        <i val="0"/>
         <color rgb="FFCC4125"/>
-        <sz val="13.0"/>
-        <u/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="CC4125">
+              <pm:latin face="Arial" sz="260" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
       </rPr>
       <t>TODO</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-        <u/>
+        <charset val="204"/>
+        <family val="2"/>
+        <sz val="13"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="000000">
+              <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
       </rPr>
       <t xml:space="preserve"> LIST</t>
     </r>
@@ -77,132 +124,284 @@
   </si>
   <si>
     <t>- у людей должна быть цифра целевого этажа над головой</t>
+  </si>
+  <si>
+    <t>плавное исчезновение людей в двери</t>
+  </si>
+  <si>
+    <t>настроить вместимость лифта, для ограничения количества человек в нём</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="13"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="260" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FFCC4125"/>
+      <sz val="13"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="CC4125" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="260" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="4">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1712141483" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1712141483" count="3">
+        <pm:color name="Цвет 24" rgb="E06666"/>
+        <pm:color name="Цвет 25" rgb="B6D7A8"/>
+        <pm:color name="Цвет 26" rgb="CC4125"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -214,160 +413,223 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="5.75"/>
-    <col customWidth="1" min="3" max="3" width="9.5"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
+    <col min="1" max="2" width="5.747748" customWidth="1"/>
+    <col min="3" max="3" width="9.495495" customWidth="1"/>
+    <col min="4" max="4" width="9.819820" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -382,133 +644,189 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3">
-        <v>45380.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45381.0</v>
+      <c r="D4" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>45381</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.0</v>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3">
-        <v>45380.0</v>
+      <c r="D5" s="3" t="n">
+        <v>45380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.0</v>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="3">
-        <v>45380.0</v>
+      <c r="D6" s="3" t="n">
+        <v>45380</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.0</v>
+      <c r="B7" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="3">
-        <v>45383.0</v>
+      <c r="D7" s="3" t="n">
+        <v>45383</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.0</v>
+      <c r="B8" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>45383.0</v>
+      <c r="D8" s="3" t="n">
+        <v>45383</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <v>6.0</v>
+      <c r="B9" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
-        <v>45383.0</v>
+      <c r="D9" s="3" t="n">
+        <v>45383</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>7.0</v>
+      <c r="B10" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <v>45383.0</v>
+      <c r="D10" s="3" t="n">
+        <v>45383</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
-        <v>8.0</v>
+      <c r="B11" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3">
-        <v>45383.0</v>
+      <c r="D11" s="3" t="n">
+        <v>45383</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1712141483" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1712141483" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1712141483" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712141483" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712141483" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712141483" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Assets/TODO/ELEVATOR_TODO.xlsx
+++ b/Assets/TODO/ELEVATOR_TODO.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1712141483" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1712141483" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1712141483" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1712141483"/>
+      <pm:revision xmlns:pm="smNativeData" day="1712233904" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1712233904" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1712233904" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1712233904"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -36,7 +36,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="single">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -57,7 +57,7 @@
         <color rgb="FFCC4125"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="CC4125">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="CC4125">
               <pm:latin face="Arial" sz="260" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -78,7 +78,7 @@
         <color rgb="FF000000"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="000000">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="000000">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -131,12 +131,15 @@
   <si>
     <t>настроить вместимость лифта, для ограничения количества человек в нём</t>
   </si>
+  <si>
+    <t>сделать стартовое меню с возможностью установки основыных параметров игры</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
@@ -146,8 +149,9 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -156,7 +160,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -173,7 +177,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="260" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -191,8 +195,25 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712141483" fgClr="CC4125" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="CC4125" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="260" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <strike/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="none" strike="1" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
           </pm:charSpec>
@@ -213,7 +234,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
           </ext>
         </extLst>
       </patternFill>
@@ -224,7 +245,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -235,7 +256,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712141483" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -257,7 +278,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
         </ext>
       </extLst>
     </border>
@@ -276,7 +297,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
         </ext>
       </extLst>
     </border>
@@ -295,7 +316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
         </ext>
       </extLst>
     </border>
@@ -314,7 +335,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712141483"/>
+          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
         </ext>
       </extLst>
     </border>
@@ -322,15 +343,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -338,10 +364,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1712141483" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1712233904" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1712141483" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1712233904" count="3">
         <pm:color name="Цвет 24" rgb="E06666"/>
         <pm:color name="Цвет 25" rgb="B6D7A8"/>
         <pm:color name="Цвет 26" rgb="CC4125"/>
@@ -610,10 +636,10 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
@@ -648,17 +674,17 @@
       <c r="A4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="n">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="n">
         <v>45380</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="7" t="n">
         <v>45381</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -684,7 +710,7 @@
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3" t="n">
         <v>45380</v>
       </c>
@@ -699,7 +725,7 @@
       <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3" t="n">
         <v>45383</v>
       </c>
@@ -711,29 +737,35 @@
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="10" t="n">
+        <v>45385</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="8" t="n">
+        <v>45386</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -774,7 +806,7 @@
       <c r="B12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="3" t="n">
         <v>45385</v>
       </c>
@@ -787,14 +819,29 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="3" t="n">
         <v>45385</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +851,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1712141483" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1712233904" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -813,16 +860,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1712141483" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1712141483" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712141483" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712141483" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1712233904" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1712233904" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712233904" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712233904" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712141483" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712233904" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Assets/TODO/ELEVATOR_TODO.xlsx
+++ b/Assets/TODO/ELEVATOR_TODO.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1712233904" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1712233904" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1712233904" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1712233904"/>
+      <pm:revision xmlns:pm="smNativeData" day="1712919979" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1712919979" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1712919979" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1712919979"/>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +36,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="single">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -54,10 +54,11 @@
         <sz val="13"/>
         <b/>
         <i val="0"/>
+        <u val="none"/>
         <color rgb="FFCC4125"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="CC4125">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="CC4125" ulstyle="none">
               <pm:latin face="Arial" sz="260" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -78,7 +79,7 @@
         <color rgb="FF000000"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="000000">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="000000">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -151,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -160,7 +161,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -177,26 +178,8 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="260" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FFCC4125"/>
-      <sz val="13"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" fgClr="CC4125" ulstyle="single" kern="1">
-            <pm:latin face="Arial" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
           </pm:charSpec>
@@ -212,7 +195,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712233904" ulstyle="none" strike="1" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" strike="1" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -220,8 +203,57 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Arial" sz="200" lang="default"/>
+            <pm:ea face="Arial" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FFCC4125"/>
+      <sz val="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="CC4125" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="260" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="260" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,7 +266,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712919979" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
           </ext>
         </extLst>
       </patternFill>
@@ -245,24 +277,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712233904" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712919979" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -278,7 +299,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
+          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
         </ext>
       </extLst>
     </border>
@@ -297,7 +318,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
+          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
         </ext>
       </extLst>
     </border>
@@ -316,26 +337,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712233904"/>
+          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
         </ext>
       </extLst>
     </border>
@@ -343,20 +345,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -364,10 +368,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1712233904" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1712919979" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1712233904" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1712919979" count="3">
         <pm:color name="Цвет 24" rgb="E06666"/>
         <pm:color name="Цвет 25" rgb="B6D7A8"/>
         <pm:color name="Цвет 26" rgb="CC4125"/>
@@ -382,10 +386,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -636,10 +640,10 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
@@ -649,198 +653,199 @@
     <col min="4" max="4" width="9.819820" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="b">
+      <c r="A4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="n">
         <v>45380</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>45381</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="n">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="n">
         <v>45380</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="n">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="n">
         <v>45380</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="n">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="7" t="n">
         <v>45385</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="b">
+      <c r="A9" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7" t="n">
         <v>45386</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="n">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="n">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="n">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="n">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="n">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="n">
         <v>45385</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="n">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="n">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="n">
         <v>45385</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="n">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="n">
         <v>45386</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -851,7 +856,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1712233904" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1712919979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -860,16 +865,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1712233904" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1712233904" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712233904" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712233904" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1712919979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1712919979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712919979" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712919979" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712233904" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712919979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Assets/TODO/ELEVATOR_TODO.xlsx
+++ b/Assets/TODO/ELEVATOR_TODO.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1712919979" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1712919979" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1712919979" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1712919979"/>
+      <pm:revision xmlns:pm="smNativeData" day="1712927618" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1712927618" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1712927618" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1712927618"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -36,7 +36,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="single">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -58,7 +58,7 @@
         <color rgb="FFCC4125"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="CC4125" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712927618" fgClr="CC4125" ulstyle="none">
               <pm:latin face="Arial" sz="260" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -79,7 +79,7 @@
         <color rgb="FF000000"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="000000">
+            <pm:charSpec xmlns:pm="smNativeData" id="1712927618" fgClr="000000">
               <pm:latin face="Arial" sz="260" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>сделать стартовое меню с возможностью установки основыных параметров игры</t>
+  </si>
+  <si>
+    <t>переместить MainMenu и Boot в project context</t>
+  </si>
+  <si>
+    <t>реализовать Event Bus</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -178,7 +184,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="260" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -195,7 +201,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" strike="1" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="none" strike="1" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -211,7 +217,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Arial" sz="200" lang="default"/>
             <pm:ea face="Arial" sz="200" lang="default"/>
@@ -228,7 +234,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" fgClr="CC4125" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" fgClr="CC4125" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -244,7 +250,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712919979" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712927618" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="260" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -253,7 +259,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,7 +272,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712919979" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712927618" type="1" fgLvl="100" fgClr="00E06666" bgLvl="0" bgClr="00E06666"/>
           </ext>
         </extLst>
       </patternFill>
@@ -277,13 +283,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712919979" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712927618" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1712927618" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -299,7 +316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
+          <pm:border xmlns:pm="smNativeData" id="1712927618"/>
         </ext>
       </extLst>
     </border>
@@ -318,7 +335,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
+          <pm:border xmlns:pm="smNativeData" id="1712927618"/>
         </ext>
       </extLst>
     </border>
@@ -337,7 +354,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712919979"/>
+          <pm:border xmlns:pm="smNativeData" id="1712927618"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1712927618"/>
         </ext>
       </extLst>
     </border>
@@ -345,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,6 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -368,10 +405,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1712919979" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1712927618" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1712919979" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1712927618" count="3">
         <pm:color name="Цвет 24" rgb="E06666"/>
         <pm:color name="Цвет 25" rgb="B6D7A8"/>
         <pm:color name="Цвет 26" rgb="CC4125"/>
@@ -640,10 +677,10 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
@@ -844,9 +881,41 @@
       <c r="D14" s="12" t="n">
         <v>45386</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="13" t="n">
+        <v>45394</v>
+      </c>
       <c r="F14" s="10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +925,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1712919979" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1712927618" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -865,16 +934,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1712919979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1712919979" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712919979" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712919979" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1712927618" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1712927618" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712927618" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712927618" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712919979" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712927618" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
